--- a/src/LivinParis/data/metro/MetroParis.xlsx
+++ b/src/LivinParis/data/metro/MetroParis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019CDAD-5F44-405F-9782-4348C3C62D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336EFD4-E8F7-40F1-BE09-B5674423E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="287">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -1643,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
-  <dimension ref="A1:N332"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2760,7 +2760,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>75117</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>75108</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2851,14 +2851,8 @@
       <c r="G52">
         <v>75108</v>
       </c>
-      <c r="K52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2880,14 +2874,8 @@
       <c r="G53">
         <v>75109</v>
       </c>
-      <c r="K53" t="s">
-        <v>66</v>
-      </c>
-      <c r="N53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2909,14 +2897,8 @@
       <c r="G54">
         <v>75109</v>
       </c>
-      <c r="K54" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2938,14 +2920,8 @@
       <c r="G55">
         <v>75102</v>
       </c>
-      <c r="K55" t="s">
-        <v>68</v>
-      </c>
-      <c r="N55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2967,14 +2943,8 @@
       <c r="G56">
         <v>75102</v>
       </c>
-      <c r="K56" t="s">
-        <v>70</v>
-      </c>
-      <c r="N56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2997,7 +2967,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3020,7 +2990,7 @@
         <v>75102</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3043,7 +3013,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3066,7 +3036,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3089,7 +3059,7 @@
         <v>75103</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3112,7 +3082,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3135,7 +3105,7 @@
         <v>75111</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9379,6 +9349,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9386,8 +9357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15187,7 +15158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDB5DC-C1CD-4F1F-BA58-6481AB17756E}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>

--- a/src/LivinParis/data/metro/MetroParis.xlsx
+++ b/src/LivinParis/data/metro/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336EFD4-E8F7-40F1-BE09-B5674423E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4434DA1-AC2E-4DD3-9FB6-57A6DA76365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -910,17 +910,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -933,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,11 +945,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -967,19 +955,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
@@ -1645,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -15158,8 +15143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDB5DC-C1CD-4F1F-BA58-6481AB17756E}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15338,7 +15323,9 @@
       <c r="C9">
         <v>227</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9">
         <v>8</v>
       </c>
@@ -15496,7 +15483,7 @@
       <c r="C17">
         <v>260</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
       <c r="E17">
@@ -15956,7 +15943,9 @@
       <c r="C40">
         <v>226</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
       <c r="E40">
         <v>8</v>
       </c>
@@ -16085,7 +16074,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B47">
@@ -17334,7 +17323,7 @@
       <c r="C109">
         <v>320</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>6</v>
       </c>
       <c r="E109">

--- a/src/LivinParis/data/metro/MetroParis.xlsx
+++ b/src/LivinParis/data/metro/MetroParis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4434DA1-AC2E-4DD3-9FB6-57A6DA76365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234C38F-B07B-4478-B401-03E9FC313200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9342,8 +9342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12448,9 +12448,7 @@
       <c r="C180" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="1">
-        <v>177</v>
-      </c>
+      <c r="D180" s="1"/>
       <c r="E180" s="1">
         <v>173</v>
       </c>
@@ -13837,7 +13835,7 @@
         <v>10</v>
       </c>
       <c r="E261">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -13850,9 +13848,7 @@
       <c r="C262">
         <v>10</v>
       </c>
-      <c r="D262" s="1">
-        <v>259</v>
-      </c>
+      <c r="D262" s="1"/>
       <c r="E262" s="1">
         <v>252</v>
       </c>
@@ -15143,7 +15139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDB5DC-C1CD-4F1F-BA58-6481AB17756E}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/src/LivinParis/data/metro/MetroParis.xlsx
+++ b/src/LivinParis/data/metro/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin\RiderProjects\LivinParis_\src\LivinParis\data\metro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234C38F-B07B-4478-B401-03E9FC313200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA179DF1-E396-4968-8B89-10A5EE21441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Hôtel de Ville</t>
   </si>
   <si>
-    <t>Saint-Paul (Le Marais)</t>
-  </si>
-  <si>
     <t>Bastille</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   </si>
   <si>
     <t>Franklin D, Roosevelt</t>
+  </si>
+  <si>
+    <t>Saint-Paul</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176:C177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6">
         <v>2.3094881923371098</v>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="D14">
         <v>2.3608852562751901</v>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>2.3687189610340802</v>
@@ -1980,7 +1980,7 @@
         <v>48.852054292549496</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>75112</v>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>2.3731565937891999</v>
@@ -2003,7 +2003,7 @@
         <v>48.845683205787502</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>75112</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>2.38720107040939</v>
@@ -2026,7 +2026,7 @@
         <v>48.847212925749702</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>75112</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>2.3958439887237302</v>
@@ -2049,7 +2049,7 @@
         <v>48.848084289025699</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>75112</v>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>2.41080499670149</v>
@@ -2072,7 +2072,7 @@
         <v>48.847007730140398</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>75112</v>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>2.4405400954061101</v>
@@ -2095,7 +2095,7 @@
         <v>48.844317513365297</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>75112</v>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>2.27763271754527</v>
@@ -2118,7 +2118,7 @@
         <v>48.871396794300203</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
         <v>75116</v>
@@ -2132,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>2.2858287659129699</v>
@@ -2141,7 +2141,7 @@
         <v>48.869926081462502</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>75116</v>
@@ -2178,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>2.2981132886172402</v>
@@ -2201,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>2.30329436242521</v>
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>2.3094129673746999</v>
@@ -2247,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>2.3158150926463699</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>2.32135917382297</v>
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>2.3279583280102099</v>
@@ -2302,7 +2302,7 @@
         <v>48.883669087324598</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>75118</v>
@@ -2316,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>2.33248437543436</v>
@@ -2325,7 +2325,7 @@
         <v>48.883766353529097</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>75109</v>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>2.3372111647011198</v>
@@ -2348,7 +2348,7 @@
         <v>48.8820209311193</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>75109</v>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>2.3441548403302899</v>
@@ -2371,7 +2371,7 @@
         <v>48.882868567895898</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>75109</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>2.3506070793550902</v>
@@ -2394,7 +2394,7 @@
         <v>48.883776088608897</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>75110</v>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>2.3604041692740898</v>
@@ -2417,7 +2417,7 @@
         <v>48.884386409904799</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>75110</v>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>2.3657743705581602</v>
@@ -2440,7 +2440,7 @@
         <v>48.884320547921803</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <v>75119</v>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>2.3714389599855998</v>
@@ -2463,7 +2463,7 @@
         <v>48.883023912481299</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>75119</v>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>2.3704675747938602</v>
@@ -2486,7 +2486,7 @@
         <v>48.877649807573398</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>75110</v>
@@ -2500,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>2.3767355865572801</v>
@@ -2509,7 +2509,7 @@
         <v>48.872286601164703</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>75119</v>
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>2.38028898292719</v>
@@ -2532,7 +2532,7 @@
         <v>48.869193344184197</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39">
         <v>75111</v>
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>2.3834303882303001</v>
@@ -2555,7 +2555,7 @@
         <v>48.8663901391973</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40">
         <v>75111</v>
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>2.3875798912544401</v>
@@ -2578,7 +2578,7 @@
         <v>48.862449843989303</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41">
         <v>75111</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>2.3904975967452802</v>
@@ -2601,7 +2601,7 @@
         <v>48.858089427187501</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42">
         <v>75111</v>
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>2.3947127337554699</v>
@@ -2624,7 +2624,7 @@
         <v>48.856244677489201</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43">
         <v>75120</v>
@@ -2638,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>2.3981875566593902</v>
@@ -2647,7 +2647,7 @@
         <v>48.851648542648903</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44">
         <v>75120</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>2.3958439887237302</v>
@@ -2670,7 +2670,7 @@
         <v>48.848084289025699</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45">
         <v>75112</v>
@@ -2684,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>2.2921124821588399</v>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>2.2976831860125801</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>2.3046730875844301</v>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>2.30948784696001</v>
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>2.3158150926463699</v>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51">
         <v>2.3221859195204999</v>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>2.3254883906726098</v>
@@ -2845,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>2.3276511034187801</v>
@@ -2854,7 +2854,7 @@
         <v>48.873666750997003</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>75109</v>
@@ -2868,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <v>2.3310472867112302</v>
@@ -2877,7 +2877,7 @@
         <v>48.871437428049099</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>75109</v>
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>2.33631873559548</v>
@@ -2900,7 +2900,7 @@
         <v>48.869659096436102</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>75102</v>
@@ -2914,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56">
         <v>2.3406653707110401</v>
@@ -2923,7 +2923,7 @@
         <v>48.868756796707601</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G56">
         <v>75102</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57">
         <v>2.34755381593778</v>
@@ -2946,7 +2946,7 @@
         <v>48.867346603345602</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G57">
         <v>75102</v>
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58">
         <v>2.3520507871028302</v>
@@ -2969,7 +2969,7 @@
         <v>48.866381755803403</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58">
         <v>75102</v>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <v>2.35650814364354</v>
@@ -2992,7 +2992,7 @@
         <v>48.865299611696798</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G59">
         <v>75103</v>
@@ -3006,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>2.3615612345263499</v>
@@ -3015,7 +3015,7 @@
         <v>48.8667566284863</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G60">
         <v>75103</v>
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>2.3633023407804501</v>
@@ -3038,7 +3038,7 @@
         <v>48.867512356863003</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G61">
         <v>75103</v>
@@ -3052,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62">
         <v>2.3747477503599002</v>
@@ -3061,7 +3061,7 @@
         <v>48.865252394862502</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62">
         <v>75111</v>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63">
         <v>2.3805077560898602</v>
@@ -3084,7 +3084,7 @@
         <v>48.864117700014603</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G63">
         <v>75111</v>
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64">
         <v>2.3875798912544401</v>
@@ -3107,7 +3107,7 @@
         <v>48.862449843989303</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64">
         <v>75111</v>
@@ -3121,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <v>2.3985373057045698</v>
@@ -3130,7 +3130,7 @@
         <v>48.865032563515904</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G65">
         <v>75120</v>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <v>2.4087542211895401</v>
@@ -3153,7 +3153,7 @@
         <v>48.864539371986297</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G66">
         <v>75120</v>
@@ -3164,10 +3164,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
         <v>81</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
       </c>
       <c r="D67">
         <v>2.4070619733807899</v>
@@ -3176,7 +3176,7 @@
         <v>48.876568598079899</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G67">
         <v>75120</v>
@@ -3187,10 +3187,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>2.4044981831688599</v>
@@ -3199,7 +3199,7 @@
         <v>48.871843371274899</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68">
         <v>75120</v>
@@ -3210,10 +3210,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>2.40149679228792</v>
@@ -3222,7 +3222,7 @@
         <v>48.868464886066697</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G69">
         <v>75120</v>
@@ -3233,10 +3233,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70">
         <v>2.3985373057045698</v>
@@ -3245,7 +3245,7 @@
         <v>48.865032563515904</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70">
         <v>75120</v>
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <v>2.34462409910279</v>
@@ -3268,7 +3268,7 @@
         <v>48.897525630330101</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>75118</v>
@@ -3282,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <v>2.34759605535164</v>
@@ -3291,7 +3291,7 @@
         <v>48.894124442685403</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>75118</v>
@@ -3305,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73">
         <v>2.3496815417224699</v>
@@ -3314,7 +3314,7 @@
         <v>48.891280438896501</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>75118</v>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>2.3493658080048299</v>
@@ -3337,7 +3337,7 @@
         <v>48.887078876519503</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>75118</v>
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75">
         <v>2.3506070793550902</v>
@@ -3360,7 +3360,7 @@
         <v>48.883776088608897</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>75110</v>
@@ -3374,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>2.3568087882054001</v>
@@ -3383,7 +3383,7 @@
         <v>48.879591706462101</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>75110</v>
@@ -3397,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77">
         <v>2.3580645944186398</v>
@@ -3406,7 +3406,7 @@
         <v>48.876162993518399</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>75110</v>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78">
         <v>2.35605174140158</v>
@@ -3429,7 +3429,7 @@
         <v>48.872446916647398</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78">
         <v>75110</v>
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79">
         <v>2.3544916165638301</v>
@@ -3452,7 +3452,7 @@
         <v>48.869623581689503</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>75110</v>
@@ -3466,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80">
         <v>2.3520507871028302</v>
@@ -3475,7 +3475,7 @@
         <v>48.866381755803403</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80">
         <v>75102</v>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <v>2.3489761968791001</v>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>2.3461273251736801</v>
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84">
         <v>2.3472322349319099</v>
@@ -3581,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85">
         <v>2.3439917990332799</v>
@@ -3590,7 +3590,7 @@
         <v>48.853594076619899</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G85">
         <v>75106</v>
@@ -3604,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86">
         <v>2.34069229106652</v>
@@ -3613,7 +3613,7 @@
         <v>48.8520245535667</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G86">
         <v>75106</v>
@@ -3627,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87">
         <v>2.3339478107981901</v>
@@ -3636,7 +3636,7 @@
         <v>48.853574562874201</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G87">
         <v>75106</v>
@@ -3650,7 +3650,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D88">
         <v>2.3306119530815401</v>
@@ -3659,7 +3659,7 @@
         <v>48.851208626618501</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G88">
         <v>75106</v>
@@ -3673,7 +3673,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89">
         <v>2.32705481506631</v>
@@ -3682,7 +3682,7 @@
         <v>48.847006650641099</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89">
         <v>75106</v>
@@ -3696,7 +3696,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D90">
         <v>2.3239891852049999</v>
@@ -3705,7 +3705,7 @@
         <v>48.843823610306202</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G90">
         <v>75115</v>
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91">
         <v>2.3288628540690999</v>
@@ -3728,7 +3728,7 @@
         <v>48.842052322344003</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G91">
         <v>75114</v>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92">
         <v>2.3304669937198699</v>
@@ -3751,7 +3751,7 @@
         <v>48.839156358577199</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G92">
         <v>75114</v>
@@ -3765,7 +3765,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93">
         <v>2.3320188352163802</v>
@@ -3774,7 +3774,7 @@
         <v>48.833948692743903</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G93">
         <v>75114</v>
@@ -3788,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94">
         <v>2.3298876404084199</v>
@@ -3797,7 +3797,7 @@
         <v>48.8313375846231</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G94">
         <v>75114</v>
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95">
         <v>2.3270932349484501</v>
@@ -3820,7 +3820,7 @@
         <v>48.828201063270797</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G95">
         <v>75114</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96">
         <v>2.3254932653821001</v>
@@ -3843,7 +3843,7 @@
         <v>48.823416350191799</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G96">
         <v>75114</v>
@@ -3857,7 +3857,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97">
         <v>2.3921229723281399</v>
@@ -3866,7 +3866,7 @@
         <v>48.8884592103988</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97">
         <v>75119</v>
@@ -3880,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98">
         <v>2.3866520167598799</v>
@@ -3889,7 +3889,7 @@
         <v>48.886915952247001</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>75119</v>
@@ -3903,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99">
         <v>2.3793909893523901</v>
@@ -3912,7 +3912,7 @@
         <v>48.885133847137801</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99">
         <v>75119</v>
@@ -3926,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D100">
         <v>2.3714389599855998</v>
@@ -3935,7 +3935,7 @@
         <v>48.883023912481299</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G100">
         <v>75119</v>
@@ -3949,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>2.3657743705581602</v>
@@ -3958,7 +3958,7 @@
         <v>48.884320547921803</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>75119</v>
@@ -3972,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D102">
         <v>2.3568087882054001</v>
@@ -3981,7 +3981,7 @@
         <v>48.879591706462101</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>75110</v>
@@ -3995,7 +3995,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103">
         <v>2.3580645944186398</v>
@@ -4004,7 +4004,7 @@
         <v>48.876162993518399</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G103">
         <v>75110</v>
@@ -4018,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104">
         <v>2.3610239020489199</v>
@@ -4027,7 +4027,7 @@
         <v>48.870620925317198</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G104">
         <v>75110</v>
@@ -4041,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D105">
         <v>2.3633023407804501</v>
@@ -4050,7 +4050,7 @@
         <v>48.867512356863003</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G105">
         <v>75103</v>
@@ -4064,7 +4064,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106">
         <v>2.3681558453945502</v>
@@ -4073,7 +4073,7 @@
         <v>48.864777097573203</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G106">
         <v>75111</v>
@@ -4087,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107">
         <v>2.3718136304769502</v>
@@ -4096,7 +4096,7 @@
         <v>48.8598769369205</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G107">
         <v>75111</v>
@@ -4110,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108">
         <v>2.3701946685897499</v>
@@ -4119,7 +4119,7 @@
         <v>48.856244053738102</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G108">
         <v>75111</v>
@@ -4133,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109">
         <v>2.3687189610340802</v>
@@ -4142,7 +4142,7 @@
         <v>48.852054292549496</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G109">
         <v>75112</v>
@@ -4156,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110">
         <v>2.3658846507504001</v>
@@ -4165,7 +4165,7 @@
         <v>48.846427324531497</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G110">
         <v>75112</v>
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D111">
         <v>2.3641773106918298</v>
@@ -4188,7 +4188,7 @@
         <v>48.843405408577098</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G111">
         <v>75105</v>
@@ -4202,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112">
         <v>2.36072185971764</v>
@@ -4211,7 +4211,7 @@
         <v>48.838512445735603</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G112">
         <v>75113</v>
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113">
         <v>2.3587419566993399</v>
@@ -4234,7 +4234,7 @@
         <v>48.835542932800998</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G113">
         <v>75113</v>
@@ -4248,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114">
         <v>2.3555015914814801</v>
@@ -4257,7 +4257,7 @@
         <v>48.830965712344302</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G114">
         <v>75113</v>
@@ -4294,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D116">
         <v>2.2931461372486202</v>
@@ -4303,7 +4303,7 @@
         <v>48.8714894119869</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G116">
         <v>75116</v>
@@ -4317,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D117">
         <v>2.2900328376074301</v>
@@ -4326,7 +4326,7 @@
         <v>48.866848342469197</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>75116</v>
@@ -4340,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118">
         <v>2.2874927969664398</v>
@@ -4349,7 +4349,7 @@
         <v>48.8634876640714</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118">
         <v>75116</v>
@@ -4363,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>2.2858394188814599</v>
@@ -4372,7 +4372,7 @@
         <v>48.857515088672102</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>75116</v>
@@ -4386,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120">
         <v>2.28940073763459</v>
@@ -4395,7 +4395,7 @@
         <v>48.853925367427699</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G120">
         <v>75115</v>
@@ -4409,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121">
         <v>2.29366372673103</v>
@@ -4418,7 +4418,7 @@
         <v>48.850411624858403</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G121">
         <v>75115</v>
@@ -4432,7 +4432,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122">
         <v>2.2985257262366301</v>
@@ -4441,7 +4441,7 @@
         <v>48.849630803484203</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G122">
         <v>75115</v>
@@ -4455,7 +4455,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123">
         <v>2.3029417283376099</v>
@@ -4464,7 +4464,7 @@
         <v>48.847543111245201</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G123">
         <v>75115</v>
@@ -4478,7 +4478,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124">
         <v>2.3095296104303902</v>
@@ -4487,7 +4487,7 @@
         <v>48.845647681702403</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G124">
         <v>75115</v>
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D125">
         <v>2.3129146804739298</v>
@@ -4510,7 +4510,7 @@
         <v>48.8425283865949</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G125">
         <v>75115</v>
@@ -4524,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D126">
         <v>2.3239891852049999</v>
@@ -4533,7 +4533,7 @@
         <v>48.843823610306202</v>
       </c>
       <c r="F126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G126">
         <v>75115</v>
@@ -4547,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127">
         <v>2.3252865779432899</v>
@@ -4556,7 +4556,7 @@
         <v>48.840903500749903</v>
       </c>
       <c r="F127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G127">
         <v>75114</v>
@@ -4570,7 +4570,7 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D128">
         <v>2.3304669937198699</v>
@@ -4579,7 +4579,7 @@
         <v>48.839156358577199</v>
       </c>
       <c r="F128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G128">
         <v>75114</v>
@@ -4593,7 +4593,7 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D129">
         <v>2.3320188352163802</v>
@@ -4602,7 +4602,7 @@
         <v>48.833948692743903</v>
       </c>
       <c r="F129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G129">
         <v>75114</v>
@@ -4616,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D130">
         <v>2.337154370925</v>
@@ -4625,7 +4625,7 @@
         <v>48.832916005270803</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G130">
         <v>75114</v>
@@ -4639,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D131">
         <v>2.3434382366787001</v>
@@ -4648,7 +4648,7 @@
         <v>48.831115946668099</v>
       </c>
       <c r="F131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G131">
         <v>75113</v>
@@ -4662,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D132">
         <v>2.3506112259261598</v>
@@ -4671,7 +4671,7 @@
         <v>48.829860012364001</v>
       </c>
       <c r="F132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G132">
         <v>75113</v>
@@ -4685,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133">
         <v>2.3555015914814801</v>
@@ -4694,7 +4694,7 @@
         <v>48.830965712344302</v>
       </c>
       <c r="F133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G133">
         <v>75113</v>
@@ -4708,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D134">
         <v>2.3628041715935</v>
@@ -4717,7 +4717,7 @@
         <v>48.833235278727798</v>
       </c>
       <c r="F134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G134">
         <v>75113</v>
@@ -4731,7 +4731,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D135">
         <v>2.36808128297274</v>
@@ -4740,7 +4740,7 @@
         <v>48.834963081160801</v>
       </c>
       <c r="F135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G135">
         <v>75113</v>
@@ -4754,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136">
         <v>2.37276624894817</v>
@@ -4763,7 +4763,7 @@
         <v>48.837074269661301</v>
       </c>
       <c r="F136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G136">
         <v>75113</v>
@@ -4777,7 +4777,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D137">
         <v>2.3794630701852499</v>
@@ -4786,7 +4786,7 @@
         <v>48.840176027173598</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G137">
         <v>75112</v>
@@ -4800,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138">
         <v>2.3895997700798</v>
@@ -4809,7 +4809,7 @@
         <v>48.8390365273805</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G138">
         <v>75112</v>
@@ -4823,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139">
         <v>2.3961486284893598</v>
@@ -4832,7 +4832,7 @@
         <v>48.839434007104799</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G139">
         <v>75112</v>
@@ -4846,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D140">
         <v>2.4008671319952501</v>
@@ -4855,7 +4855,7 @@
         <v>48.841427331285303</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G140">
         <v>75112</v>
@@ -4869,7 +4869,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141">
         <v>2.4012745388223702</v>
@@ -4878,7 +4878,7 @@
         <v>48.845103246553599</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G141">
         <v>75112</v>
@@ -4892,7 +4892,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D142">
         <v>2.3958439887237302</v>
@@ -4901,7 +4901,7 @@
         <v>48.848084289025699</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G142">
         <v>75112</v>
@@ -4915,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D143">
         <v>2.3858690331433401</v>
@@ -4924,7 +4924,7 @@
         <v>48.897802691407797</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143">
         <v>75119</v>
@@ -4938,7 +4938,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D144">
         <v>2.3822915571646299</v>
@@ -4947,7 +4947,7 @@
         <v>48.894672659108302</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144">
         <v>75119</v>
@@ -4961,7 +4961,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D145">
         <v>2.3769357369823698</v>
@@ -4970,7 +4970,7 @@
         <v>48.890885757980797</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>75119</v>
@@ -4984,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D146">
         <v>2.3736694647431902</v>
@@ -4993,7 +4993,7 @@
         <v>48.888157261117797</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G146">
         <v>75119</v>
@@ -5007,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147">
         <v>2.3657743705581602</v>
@@ -5016,7 +5016,7 @@
         <v>48.884320547921803</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G147">
         <v>75119</v>
@@ -5030,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D148">
         <v>2.3644248624936699</v>
@@ -5039,7 +5039,7 @@
         <v>48.881206210877899</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G148">
         <v>75110</v>
@@ -5053,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D149">
         <v>2.3620179355105999</v>
@@ -5062,7 +5062,7 @@
         <v>48.878441454784301</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>75110</v>
@@ -5076,7 +5076,7 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D150">
         <v>2.3580645944186398</v>
@@ -5085,7 +5085,7 @@
         <v>48.876162993518399</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G150">
         <v>75110</v>
@@ -5099,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>2.3487397513900699</v>
@@ -5108,7 +5108,7 @@
         <v>48.877164848302201</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>75109</v>
@@ -5122,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D152">
         <v>2.3444463097022701</v>
@@ -5131,7 +5131,7 @@
         <v>48.875963284127501</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>75109</v>
@@ -5145,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153">
         <v>2.3401505597063701</v>
@@ -5154,7 +5154,7 @@
         <v>48.874959405092902</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>75109</v>
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D154">
         <v>2.3337385944086999</v>
@@ -5177,7 +5177,7 @@
         <v>48.873134204826599</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>75109</v>
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D155">
         <v>2.3310472867112302</v>
@@ -5200,7 +5200,7 @@
         <v>48.871437428049099</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>75109</v>
@@ -5214,7 +5214,7 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156">
         <v>2.3346236060049201</v>
@@ -5260,7 +5260,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158">
         <v>2.3417767491485399</v>
@@ -5306,7 +5306,7 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160">
         <v>2.3573766690443998</v>
@@ -5329,7 +5329,7 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161">
         <v>2.3618531696972398</v>
@@ -5352,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162">
         <v>2.3549316718232198</v>
@@ -5361,7 +5361,7 @@
         <v>48.8461978906887</v>
       </c>
       <c r="F162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G162">
         <v>75105</v>
@@ -5375,7 +5375,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163">
         <v>2.3521548685787699</v>
@@ -5384,7 +5384,7 @@
         <v>48.842666384694603</v>
       </c>
       <c r="F163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G163">
         <v>75105</v>
@@ -5398,7 +5398,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164">
         <v>2.3516265726054901</v>
@@ -5407,7 +5407,7 @@
         <v>48.840226247565603</v>
       </c>
       <c r="F164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G164">
         <v>75105</v>
@@ -5421,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D165">
         <v>2.3524168018982698</v>
@@ -5430,7 +5430,7 @@
         <v>48.835841621396099</v>
       </c>
       <c r="F165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G165">
         <v>75113</v>
@@ -5444,7 +5444,7 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D166">
         <v>2.3555015914814801</v>
@@ -5453,7 +5453,7 @@
         <v>48.830965712344302</v>
       </c>
       <c r="F166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G166">
         <v>75113</v>
@@ -5467,7 +5467,7 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D167">
         <v>2.3573184392131901</v>
@@ -5476,7 +5476,7 @@
         <v>48.826136860805299</v>
       </c>
       <c r="F167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G167">
         <v>75113</v>
@@ -5490,7 +5490,7 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168">
         <v>2.35841294615593</v>
@@ -5499,7 +5499,7 @@
         <v>48.822149505126497</v>
       </c>
       <c r="F168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G168">
         <v>75113</v>
@@ -5513,7 +5513,7 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169">
         <v>2.3595297331071601</v>
@@ -5522,7 +5522,7 @@
         <v>48.819106595610201</v>
       </c>
       <c r="F169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G169">
         <v>75113</v>
@@ -5536,7 +5536,7 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170">
         <v>2.3646785940494501</v>
@@ -5545,7 +5545,7 @@
         <v>48.8200559281997</v>
       </c>
       <c r="F170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G170">
         <v>75113</v>
@@ -5559,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D171">
         <v>2.3695112543194901</v>
@@ -5568,7 +5568,7 @@
         <v>48.821489034614402</v>
       </c>
       <c r="F171" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G171">
         <v>75113</v>
@@ -5579,10 +5579,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D172">
         <v>2.3644248624936699</v>
@@ -5591,7 +5591,7 @@
         <v>48.881206210877899</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G172">
         <v>75110</v>
@@ -5602,10 +5602,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173">
         <v>2.3714389599855998</v>
@@ -5614,7 +5614,7 @@
         <v>48.883023912481299</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>75119</v>
@@ -5625,10 +5625,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
         <v>170</v>
-      </c>
-      <c r="C174" t="s">
-        <v>171</v>
       </c>
       <c r="D174">
         <v>2.37412487118754</v>
@@ -5637,7 +5637,7 @@
         <v>48.880789662026999</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G174">
         <v>75119</v>
@@ -5648,10 +5648,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D175">
         <v>2.381569842088</v>
@@ -5660,7 +5660,7 @@
         <v>48.8784990874505</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G175">
         <v>75119</v>
@@ -5671,10 +5671,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D176">
         <v>2.3889009513157302</v>
@@ -5683,7 +5683,7 @@
         <v>48.879534990320302</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G176">
         <v>75119</v>
@@ -5694,10 +5694,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D177">
         <v>2.3889009513157302</v>
@@ -5706,7 +5706,7 @@
         <v>48.879534990320302</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177">
         <v>75119</v>
@@ -5717,10 +5717,10 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D178">
         <v>2.39313937036049</v>
@@ -5729,7 +5729,7 @@
         <v>48.876723661025203</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>75119</v>
@@ -5740,10 +5740,10 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D179">
         <v>2.39858077069352</v>
@@ -5752,7 +5752,7 @@
         <v>48.880159579716199</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>75119</v>
@@ -5763,10 +5763,10 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D180">
         <v>2.3932284712274901</v>
@@ -5775,7 +5775,7 @@
         <v>48.881949213972597</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G180">
         <v>75119</v>
@@ -5789,7 +5789,7 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D181">
         <v>2.2783626618091901</v>
@@ -5798,7 +5798,7 @@
         <v>48.836667893882698</v>
       </c>
       <c r="F181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G181">
         <v>75115</v>
@@ -5812,7 +5812,7 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D182">
         <v>2.2822419598550701</v>
@@ -5821,7 +5821,7 @@
         <v>48.838660862711599</v>
       </c>
       <c r="F182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G182">
         <v>75115</v>
@@ -5835,7 +5835,7 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D183">
         <v>2.2879184311245502</v>
@@ -5844,7 +5844,7 @@
         <v>48.841024160044903</v>
       </c>
       <c r="F183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G183">
         <v>75115</v>
@@ -5858,7 +5858,7 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D184">
         <v>2.2918472203679601</v>
@@ -5867,7 +5867,7 @@
         <v>48.842684333848297</v>
       </c>
       <c r="F184" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G184">
         <v>75115</v>
@@ -5881,7 +5881,7 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D185">
         <v>2.2937968421928598</v>
@@ -5890,7 +5890,7 @@
         <v>48.844611511420197</v>
       </c>
       <c r="F185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G185">
         <v>75115</v>
@@ -5904,7 +5904,7 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D186">
         <v>2.2985257262366301</v>
@@ -5913,7 +5913,7 @@
         <v>48.849630803484203</v>
       </c>
       <c r="F186" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G186">
         <v>75115</v>
@@ -5927,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187">
         <v>2.3063456838200702</v>
@@ -5936,7 +5936,7 @@
         <v>48.854919659638803</v>
       </c>
       <c r="F187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G187">
         <v>75107</v>
@@ -5950,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D188">
         <v>2.3104735359369801</v>
@@ -5959,7 +5959,7 @@
         <v>48.857727022586303</v>
       </c>
       <c r="F188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G188">
         <v>75107</v>
@@ -5973,7 +5973,7 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D189">
         <v>2.3146326604445102</v>
@@ -5982,7 +5982,7 @@
         <v>48.861092010432898</v>
       </c>
       <c r="F189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G189">
         <v>75107</v>
@@ -6019,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191">
         <v>2.32581004879327</v>
@@ -6042,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D192">
         <v>2.3310472867112302</v>
@@ -6051,7 +6051,7 @@
         <v>48.871437428049099</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>75109</v>
@@ -6065,7 +6065,7 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D193">
         <v>2.33859122153854</v>
@@ -6074,7 +6074,7 @@
         <v>48.872135869369799</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>75109</v>
@@ -6088,7 +6088,7 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D194">
         <v>2.3432072664050798</v>
@@ -6097,7 +6097,7 @@
         <v>48.871504768814603</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>75109</v>
@@ -6111,7 +6111,7 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D195">
         <v>2.3484813657183801</v>
@@ -6120,7 +6120,7 @@
         <v>48.8705712985549</v>
       </c>
       <c r="F195" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G195">
         <v>75102</v>
@@ -6134,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D196">
         <v>2.3544916165638301</v>
@@ -6143,7 +6143,7 @@
         <v>48.869623581689503</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>75110</v>
@@ -6157,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D197">
         <v>2.3633023407804501</v>
@@ -6166,7 +6166,7 @@
         <v>48.867512356863003</v>
       </c>
       <c r="F197" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G197">
         <v>75103</v>
@@ -6180,7 +6180,7 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D198">
         <v>2.3667452977427001</v>
@@ -6189,7 +6189,7 @@
         <v>48.863069882502501</v>
       </c>
       <c r="F198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G198">
         <v>75111</v>
@@ -6203,7 +6203,7 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D199">
         <v>2.3672615397172598</v>
@@ -6212,7 +6212,7 @@
         <v>48.860968144808197</v>
       </c>
       <c r="F199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G199">
         <v>75111</v>
@@ -6226,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D200">
         <v>2.3680950853859901</v>
@@ -6235,7 +6235,7 @@
         <v>48.857087366872101</v>
       </c>
       <c r="F200" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G200">
         <v>75103</v>
@@ -6249,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>2.3687189610340802</v>
@@ -6258,7 +6258,7 @@
         <v>48.852054292549496</v>
       </c>
       <c r="F201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G201">
         <v>75112</v>
@@ -6272,7 +6272,7 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D202">
         <v>2.3761412233185899</v>
@@ -6281,7 +6281,7 @@
         <v>48.851337765850097</v>
       </c>
       <c r="F202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G202">
         <v>75111</v>
@@ -6295,7 +6295,7 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D203">
         <v>2.3840285663830998</v>
@@ -6304,7 +6304,7 @@
         <v>48.850110543185401</v>
       </c>
       <c r="F203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G203">
         <v>75112</v>
@@ -6318,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D204">
         <v>2.38720107040939</v>
@@ -6327,7 +6327,7 @@
         <v>48.847212925749702</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G204">
         <v>75112</v>
@@ -6341,7 +6341,7 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D205">
         <v>2.39040001363536</v>
@@ -6350,7 +6350,7 @@
         <v>48.844005074760602</v>
       </c>
       <c r="F205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G205">
         <v>75112</v>
@@ -6364,7 +6364,7 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D206">
         <v>2.3961486284893598</v>
@@ -6373,7 +6373,7 @@
         <v>48.839434007104799</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G206">
         <v>75112</v>
@@ -6387,7 +6387,7 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D207">
         <v>2.402366739988</v>
@@ -6396,7 +6396,7 @@
         <v>48.837077430087398</v>
       </c>
       <c r="F207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G207">
         <v>75112</v>
@@ -6410,7 +6410,7 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D208">
         <v>2.4058739129875599</v>
@@ -6419,7 +6419,7 @@
         <v>48.835017373145497</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G208">
         <v>75112</v>
@@ -6433,7 +6433,7 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D209">
         <v>2.4025118728500701</v>
@@ -6442,7 +6442,7 @@
         <v>48.833449221931097</v>
       </c>
       <c r="F209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G209">
         <v>75112</v>
@@ -6456,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D210">
         <v>2.2570461929221399</v>
@@ -6465,7 +6465,7 @@
         <v>48.837958404671198</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210">
         <v>75116</v>
@@ -6479,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D211">
         <v>2.2598008451443401</v>
@@ -6488,7 +6488,7 @@
         <v>48.842580275328203</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G211">
         <v>75116</v>
@@ -6502,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D212">
         <v>2.2615119169051998</v>
@@ -6511,7 +6511,7 @@
         <v>48.844911226614997</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212">
         <v>75116</v>
@@ -6525,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D213">
         <v>2.26398952533332</v>
@@ -6534,7 +6534,7 @@
         <v>48.847975353228001</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G213">
         <v>75116</v>
@@ -6548,7 +6548,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D214">
         <v>2.26793329164706</v>
@@ -6557,7 +6557,7 @@
         <v>48.852433417777299</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>75116</v>
@@ -6571,7 +6571,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D215">
         <v>2.2699481579346301</v>
@@ -6580,7 +6580,7 @@
         <v>48.855503557447399</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215">
         <v>75116</v>
@@ -6594,7 +6594,7 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D216">
         <v>2.2740962446697202</v>
@@ -6603,7 +6603,7 @@
         <v>48.8580919659504</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G216">
         <v>75116</v>
@@ -6617,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D217">
         <v>2.2778858979590502</v>
@@ -6626,7 +6626,7 @@
         <v>48.863951707931797</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G217">
         <v>75116</v>
@@ -6640,7 +6640,7 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D218">
         <v>2.2874927969664398</v>
@@ -6649,7 +6649,7 @@
         <v>48.8634876640714</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G218">
         <v>75116</v>
@@ -6663,7 +6663,7 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D219">
         <v>2.2938642256822699</v>
@@ -6672,7 +6672,7 @@
         <v>48.864780021309301</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G219">
         <v>75116</v>
@@ -6686,7 +6686,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D220">
         <v>2.30110435239266</v>
@@ -6695,7 +6695,7 @@
         <v>48.864647146957701</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>75116</v>
@@ -6709,7 +6709,7 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D221">
         <v>2.3094881923371098</v>
@@ -6732,7 +6732,7 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D222">
         <v>2.3101372056878202</v>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D223">
         <v>2.31601069312102</v>
@@ -6778,7 +6778,7 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D224">
         <v>2.32101359780859</v>
@@ -6801,7 +6801,7 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D225">
         <v>2.3276511034187801</v>
@@ -6810,7 +6810,7 @@
         <v>48.873666750997003</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>75109</v>
@@ -6824,7 +6824,7 @@
         <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D226">
         <v>2.3337385944086999</v>
@@ -6833,7 +6833,7 @@
         <v>48.873134204826599</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>75109</v>
@@ -6847,7 +6847,7 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D227">
         <v>2.33859122153854</v>
@@ -6856,7 +6856,7 @@
         <v>48.872135869369799</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G227">
         <v>75109</v>
@@ -6870,7 +6870,7 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D228">
         <v>2.3432072664050798</v>
@@ -6879,7 +6879,7 @@
         <v>48.871504768814603</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>75109</v>
@@ -6893,7 +6893,7 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D229">
         <v>2.3484813657183801</v>
@@ -6902,7 +6902,7 @@
         <v>48.8705712985549</v>
       </c>
       <c r="F229" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G229">
         <v>75102</v>
@@ -6916,7 +6916,7 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D230">
         <v>2.3544916165638301</v>
@@ -6925,7 +6925,7 @@
         <v>48.869623581689503</v>
       </c>
       <c r="F230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G230">
         <v>75110</v>
@@ -6939,7 +6939,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D231">
         <v>2.3633023407804501</v>
@@ -6948,7 +6948,7 @@
         <v>48.867512356863003</v>
       </c>
       <c r="F231" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G231">
         <v>75103</v>
@@ -6962,7 +6962,7 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D232">
         <v>2.3681558453945502</v>
@@ -6971,7 +6971,7 @@
         <v>48.864777097573203</v>
       </c>
       <c r="F232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G232">
         <v>75111</v>
@@ -6985,7 +6985,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D233">
         <v>2.37388053821154</v>
@@ -6994,7 +6994,7 @@
         <v>48.861416656960998</v>
       </c>
       <c r="F233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G233">
         <v>75111</v>
@@ -7008,7 +7008,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D234">
         <v>2.3800316941488</v>
@@ -7017,7 +7017,7 @@
         <v>48.857662433437802</v>
       </c>
       <c r="F234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G234">
         <v>75111</v>
@@ -7031,7 +7031,7 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D235">
         <v>2.3847823964488799</v>
@@ -7040,7 +7040,7 @@
         <v>48.854939442500303</v>
       </c>
       <c r="F235" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G235">
         <v>75111</v>
@@ -7054,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D236">
         <v>2.3891047050322398</v>
@@ -7063,7 +7063,7 @@
         <v>48.852214072383703</v>
       </c>
       <c r="F236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G236">
         <v>75111</v>
@@ -7077,7 +7077,7 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D237">
         <v>2.3958439887237302</v>
@@ -7086,7 +7086,7 @@
         <v>48.848084289025699</v>
       </c>
       <c r="F237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G237">
         <v>75112</v>
@@ -7100,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D238">
         <v>2.4011707693684099</v>
@@ -7109,7 +7109,7 @@
         <v>48.851762438884002</v>
       </c>
       <c r="F238" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G238">
         <v>75120</v>
@@ -7123,7 +7123,7 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D239">
         <v>2.4060385447980499</v>
@@ -7132,7 +7132,7 @@
         <v>48.852731019531802</v>
       </c>
       <c r="F239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G239">
         <v>75120</v>
@@ -7146,7 +7146,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D240">
         <v>2.41071815402749</v>
@@ -7155,7 +7155,7 @@
         <v>48.853482630258299</v>
       </c>
       <c r="F240" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G240">
         <v>75120</v>
@@ -7169,7 +7169,7 @@
         <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D241">
         <v>2.3641773106918298</v>
@@ -7178,7 +7178,7 @@
         <v>48.843405408577098</v>
       </c>
       <c r="F241" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G241">
         <v>75105</v>
@@ -7192,7 +7192,7 @@
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D242">
         <v>2.3549316718232198</v>
@@ -7201,7 +7201,7 @@
         <v>48.8461978906887</v>
       </c>
       <c r="F242" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G242">
         <v>75105</v>
@@ -7215,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D243">
         <v>2.3513280016731701</v>
@@ -7224,7 +7224,7 @@
         <v>48.8467000343148</v>
       </c>
       <c r="F243" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G243">
         <v>75105</v>
@@ -7238,7 +7238,7 @@
         <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D244">
         <v>2.3482804131694799</v>
@@ -7247,7 +7247,7 @@
         <v>48.850195465121203</v>
       </c>
       <c r="F244" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G244">
         <v>75105</v>
@@ -7261,7 +7261,7 @@
         <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D245">
         <v>2.3448963012120698</v>
@@ -7270,7 +7270,7 @@
         <v>48.851026875926202</v>
       </c>
       <c r="F245" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G245">
         <v>75105</v>
@@ -7284,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D246">
         <v>2.34069229106652</v>
@@ -7293,7 +7293,7 @@
         <v>48.8520245535667</v>
       </c>
       <c r="F246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G246">
         <v>75106</v>
@@ -7307,7 +7307,7 @@
         <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D247">
         <v>2.3351428193464701</v>
@@ -7316,7 +7316,7 @@
         <v>48.8528437373513</v>
       </c>
       <c r="F247" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G247">
         <v>75106</v>
@@ -7330,7 +7330,7 @@
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D248">
         <v>2.3268596631217302</v>
@@ -7339,7 +7339,7 @@
         <v>48.851565305443103</v>
       </c>
       <c r="F248" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G248">
         <v>75107</v>
@@ -7353,7 +7353,7 @@
         <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D249">
         <v>2.32135124235473</v>
@@ -7362,7 +7362,7 @@
         <v>48.848894569110598</v>
       </c>
       <c r="F249" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G249">
         <v>75107</v>
@@ -7376,7 +7376,7 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D250">
         <v>2.3165212194565199</v>
@@ -7385,7 +7385,7 @@
         <v>48.847009892663699</v>
       </c>
       <c r="F250" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G250">
         <v>75107</v>
@@ -7399,7 +7399,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D251">
         <v>2.3071378494033801</v>
@@ -7408,7 +7408,7 @@
         <v>48.8471672690467</v>
       </c>
       <c r="F251" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G251">
         <v>75115</v>
@@ -7422,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D252">
         <v>2.2985257262366301</v>
@@ -7431,7 +7431,7 @@
         <v>48.849630803484203</v>
       </c>
       <c r="F252" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G252">
         <v>75115</v>
@@ -7445,7 +7445,7 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D253">
         <v>2.29501899714354</v>
@@ -7454,7 +7454,7 @@
         <v>48.847038012756897</v>
       </c>
       <c r="F253" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G253">
         <v>75115</v>
@@ -7468,7 +7468,7 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D254">
         <v>2.2856210133667099</v>
@@ -7477,7 +7477,7 @@
         <v>48.846604531449103</v>
       </c>
       <c r="F254" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G254">
         <v>75115</v>
@@ -7491,7 +7491,7 @@
         <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D255">
         <v>2.2780094965273499</v>
@@ -7500,7 +7500,7 @@
         <v>48.846181105274901</v>
       </c>
       <c r="F255" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G255">
         <v>75115</v>
@@ -7514,7 +7514,7 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D256">
         <v>2.2780094965273499</v>
@@ -7523,7 +7523,7 @@
         <v>48.846181105274901</v>
       </c>
       <c r="F256" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G256">
         <v>75115</v>
@@ -7537,7 +7537,7 @@
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D257">
         <v>2.2691113890218899</v>
@@ -7546,7 +7546,7 @@
         <v>48.847143360508902</v>
       </c>
       <c r="F257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G257">
         <v>75116</v>
@@ -7560,7 +7560,7 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D258">
         <v>2.26398952533332</v>
@@ -7569,7 +7569,7 @@
         <v>48.847975353228001</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G258">
         <v>75116</v>
@@ -7583,7 +7583,7 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D259">
         <v>2.2582807445955302</v>
@@ -7592,7 +7592,7 @@
         <v>48.847904122681001</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G259">
         <v>75116</v>
@@ -7606,7 +7606,7 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D260">
         <v>2.2615119169051998</v>
@@ -7615,7 +7615,7 @@
         <v>48.844911226614997</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G260">
         <v>75116</v>
@@ -7629,7 +7629,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D261">
         <v>2.26690547594028</v>
@@ -7638,7 +7638,7 @@
         <v>48.8450882982305</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G261">
         <v>75116</v>
@@ -7652,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D262">
         <v>2.2730641263728302</v>
@@ -7661,7 +7661,7 @@
         <v>48.847077506397703</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G262">
         <v>75116</v>
@@ -7721,7 +7721,7 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D265">
         <v>2.35327394859477</v>
@@ -7744,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D266">
         <v>2.35650814364354</v>
@@ -7753,7 +7753,7 @@
         <v>48.865299611696798</v>
       </c>
       <c r="F266" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G266">
         <v>75103</v>
@@ -7767,7 +7767,7 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D267">
         <v>2.3633023407804501</v>
@@ -7776,7 +7776,7 @@
         <v>48.867512356863003</v>
       </c>
       <c r="F267" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G267">
         <v>75103</v>
@@ -7790,7 +7790,7 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D268">
         <v>2.37076443474839</v>
@@ -7799,7 +7799,7 @@
         <v>48.870007016890497</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G268">
         <v>75110</v>
@@ -7813,7 +7813,7 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D269">
         <v>2.3767355865572801</v>
@@ -7822,7 +7822,7 @@
         <v>48.872286601164703</v>
       </c>
       <c r="F269" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G269">
         <v>75119</v>
@@ -7836,7 +7836,7 @@
         <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D270">
         <v>2.38520291556953</v>
@@ -7845,7 +7845,7 @@
         <v>48.873818789232502</v>
       </c>
       <c r="F270" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G270">
         <v>75120</v>
@@ -7859,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D271">
         <v>2.3893253789100899</v>
@@ -7868,7 +7868,7 @@
         <v>48.875247347693303</v>
       </c>
       <c r="F271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G271">
         <v>75119</v>
@@ -7882,7 +7882,7 @@
         <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D272">
         <v>2.39313937036049</v>
@@ -7891,7 +7891,7 @@
         <v>48.876723661025203</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>75119</v>
@@ -7905,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D273">
         <v>2.3986480899605902</v>
@@ -7914,7 +7914,7 @@
         <v>48.875510383232701</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>75119</v>
@@ -7928,7 +7928,7 @@
         <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D274">
         <v>2.4070619733807899</v>
@@ -7937,7 +7937,7 @@
         <v>48.876568598079899</v>
       </c>
       <c r="F274" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G274">
         <v>75120</v>
@@ -7951,7 +7951,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D275">
         <v>2.3592485423103602</v>
@@ -7960,7 +7960,7 @@
         <v>48.897402421722497</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G275">
         <v>75118</v>
@@ -7974,7 +7974,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D276">
         <v>2.3598084780840201</v>
@@ -7983,7 +7983,7 @@
         <v>48.890579577619199</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G276">
         <v>75118</v>
@@ -7997,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D277">
         <v>2.3496815417224699</v>
@@ -8006,7 +8006,7 @@
         <v>48.891280438896501</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G277">
         <v>75118</v>
@@ -8020,7 +8020,7 @@
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D278">
         <v>2.34432002938048</v>
@@ -8029,7 +8029,7 @@
         <v>48.892492267253999</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G278">
         <v>75118</v>
@@ -8043,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D279">
         <v>2.33858382438319</v>
@@ -8052,7 +8052,7 @@
         <v>48.889681809018803</v>
       </c>
       <c r="F279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G279">
         <v>75118</v>
@@ -8066,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D280">
         <v>2.3383946352209</v>
@@ -8075,7 +8075,7 @@
         <v>48.884392717043397</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G280">
         <v>75118</v>
@@ -8089,7 +8089,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D281">
         <v>2.3372111647011198</v>
@@ -8098,7 +8098,7 @@
         <v>48.8820209311193</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>75109</v>
@@ -8112,7 +8112,7 @@
         <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D282">
         <v>2.3375706403796599</v>
@@ -8121,7 +8121,7 @@
         <v>48.878416593953702</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G282">
         <v>75109</v>
@@ -8135,7 +8135,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D283">
         <v>2.3378736192226302</v>
@@ -8144,7 +8144,7 @@
         <v>48.876035030332503</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G283">
         <v>75109</v>
@@ -8158,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D284">
         <v>2.3330491724182298</v>
@@ -8167,7 +8167,7 @@
         <v>48.876336506359301</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G284">
         <v>75109</v>
@@ -8181,7 +8181,7 @@
         <v>12</v>
       </c>
       <c r="C285" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D285">
         <v>2.3254883906726098</v>
@@ -8204,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D286">
         <v>2.32581004879327</v>
@@ -8250,7 +8250,7 @@
         <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D288">
         <v>2.3205758366475502</v>
@@ -8259,7 +8259,7 @@
         <v>48.861071938577901</v>
       </c>
       <c r="F288" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G288">
         <v>75107</v>
@@ -8273,7 +8273,7 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D289">
         <v>2.3230759642515402</v>
@@ -8282,7 +8282,7 @@
         <v>48.858531948780303</v>
       </c>
       <c r="F289" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G289">
         <v>75107</v>
@@ -8296,7 +8296,7 @@
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D290">
         <v>2.32569989845241</v>
@@ -8305,7 +8305,7 @@
         <v>48.855884677537198</v>
       </c>
       <c r="F290" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G290">
         <v>75107</v>
@@ -8319,7 +8319,7 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D291">
         <v>2.3268596631217302</v>
@@ -8328,7 +8328,7 @@
         <v>48.851565305443103</v>
       </c>
       <c r="F291" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G291">
         <v>75107</v>
@@ -8342,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="C292" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D292">
         <v>2.3277871847873799</v>
@@ -8351,7 +8351,7 @@
         <v>48.848332828092303</v>
       </c>
       <c r="F292" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G292">
         <v>75106</v>
@@ -8365,7 +8365,7 @@
         <v>12</v>
       </c>
       <c r="C293" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D293">
         <v>2.3286958054986999</v>
@@ -8374,7 +8374,7 @@
         <v>48.845077744689497</v>
       </c>
       <c r="F293" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G293">
         <v>75106</v>
@@ -8388,7 +8388,7 @@
         <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D294">
         <v>2.3239891852049999</v>
@@ -8397,7 +8397,7 @@
         <v>48.843823610306202</v>
       </c>
       <c r="F294" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G294">
         <v>75115</v>
@@ -8411,7 +8411,7 @@
         <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D295">
         <v>2.31755123561702</v>
@@ -8420,7 +8420,7 @@
         <v>48.844317682586002</v>
       </c>
       <c r="F295" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G295">
         <v>75115</v>
@@ -8434,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D296">
         <v>2.3129146804739298</v>
@@ -8443,7 +8443,7 @@
         <v>48.8425283865949</v>
       </c>
       <c r="F296" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G296">
         <v>75115</v>
@@ -8457,7 +8457,7 @@
         <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D297">
         <v>2.3079833805768502</v>
@@ -8466,7 +8466,7 @@
         <v>48.841411727466699</v>
       </c>
       <c r="F297" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G297">
         <v>75115</v>
@@ -8480,7 +8480,7 @@
         <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D298">
         <v>2.3010745156545398</v>
@@ -8489,7 +8489,7 @@
         <v>48.839437917128599</v>
       </c>
       <c r="F298" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G298">
         <v>75115</v>
@@ -8503,7 +8503,7 @@
         <v>12</v>
       </c>
       <c r="C299" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D299">
         <v>2.2963913864809098</v>
@@ -8512,7 +8512,7 @@
         <v>48.837135052856603</v>
       </c>
       <c r="F299" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G299">
         <v>75115</v>
@@ -8526,7 +8526,7 @@
         <v>12</v>
       </c>
       <c r="C300" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D300">
         <v>2.2877417091423302</v>
@@ -8535,7 +8535,7 @@
         <v>48.832519531565097</v>
       </c>
       <c r="F300" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G300">
         <v>75115</v>
@@ -8549,7 +8549,7 @@
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D301">
         <v>2.30533238665747</v>
@@ -8558,7 +8558,7 @@
         <v>48.827613463055897</v>
       </c>
       <c r="F301" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G301">
         <v>75114</v>
@@ -8572,7 +8572,7 @@
         <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D302">
         <v>2.3138604893443002</v>
@@ -8581,7 +8581,7 @@
         <v>48.831750362119102</v>
       </c>
       <c r="F302" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G302">
         <v>75114</v>
@@ -8595,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D303">
         <v>2.3183937066147</v>
@@ -8604,7 +8604,7 @@
         <v>48.8340786788266</v>
       </c>
       <c r="F303" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G303">
         <v>75114</v>
@@ -8618,7 +8618,7 @@
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D304">
         <v>2.3223539967788001</v>
@@ -8627,7 +8627,7 @@
         <v>48.838526084074203</v>
       </c>
       <c r="F304" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G304">
         <v>75114</v>
@@ -8641,7 +8641,7 @@
         <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D305">
         <v>2.3239891852049999</v>
@@ -8650,7 +8650,7 @@
         <v>48.843823610306202</v>
       </c>
       <c r="F305" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G305">
         <v>75115</v>
@@ -8664,7 +8664,7 @@
         <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D306">
         <v>2.3165212194565199</v>
@@ -8673,7 +8673,7 @@
         <v>48.847009892663699</v>
       </c>
       <c r="F306" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G306">
         <v>75107</v>
@@ -8687,7 +8687,7 @@
         <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D307">
         <v>2.3142859461805498</v>
@@ -8696,7 +8696,7 @@
         <v>48.851291549990201</v>
       </c>
       <c r="F307" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G307">
         <v>75107</v>
@@ -8710,7 +8710,7 @@
         <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D308">
         <v>2.31511393050965</v>
@@ -8719,7 +8719,7 @@
         <v>48.856624981798298</v>
       </c>
       <c r="F308" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G308">
         <v>75107</v>
@@ -8733,7 +8733,7 @@
         <v>13</v>
       </c>
       <c r="C309" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D309">
         <v>2.3146326604445102</v>
@@ -8742,7 +8742,7 @@
         <v>48.861092010432898</v>
       </c>
       <c r="F309" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G309">
         <v>75107</v>
@@ -8779,7 +8779,7 @@
         <v>13</v>
       </c>
       <c r="C311" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D311">
         <v>2.31601069312102</v>
@@ -8802,7 +8802,7 @@
         <v>13</v>
       </c>
       <c r="C312" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D312">
         <v>2.3254883906726098</v>
@@ -8825,7 +8825,7 @@
         <v>13</v>
       </c>
       <c r="C313" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D313">
         <v>2.3268526712397501</v>
@@ -8848,7 +8848,7 @@
         <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D314">
         <v>2.3279583280102099</v>
@@ -8857,7 +8857,7 @@
         <v>48.883669087324598</v>
       </c>
       <c r="F314" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G314">
         <v>75118</v>
@@ -8871,7 +8871,7 @@
         <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D315">
         <v>2.3257141171661302</v>
@@ -8880,7 +8880,7 @@
         <v>48.887433655788897</v>
       </c>
       <c r="F315" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G315">
         <v>75118</v>
@@ -8894,7 +8894,7 @@
         <v>13</v>
       </c>
       <c r="C316" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D316">
         <v>2.32748325862612</v>
@@ -8903,7 +8903,7 @@
         <v>48.893001441013602</v>
       </c>
       <c r="F316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G316">
         <v>75118</v>
@@ -8917,7 +8917,7 @@
         <v>13</v>
       </c>
       <c r="C317" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D317">
         <v>2.3290483407446398</v>
@@ -8926,7 +8926,7 @@
         <v>48.8974978363795</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G317">
         <v>75118</v>
@@ -8940,7 +8940,7 @@
         <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D318">
         <v>2.3257141171661302</v>
@@ -8949,7 +8949,7 @@
         <v>48.887433655788897</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G318">
         <v>75118</v>
@@ -8963,7 +8963,7 @@
         <v>13</v>
       </c>
       <c r="C319" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D319">
         <v>2.3199048172093599</v>
@@ -8986,7 +8986,7 @@
         <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D320">
         <v>2.3132083507588002</v>
@@ -9009,7 +9009,7 @@
         <v>14</v>
       </c>
       <c r="C321" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D321">
         <v>2.3132083507588002</v>
@@ -9032,7 +9032,7 @@
         <v>14</v>
       </c>
       <c r="C322" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D322">
         <v>2.3153681405051501</v>
@@ -9055,7 +9055,7 @@
         <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D323">
         <v>2.3254883906726098</v>
@@ -9078,7 +9078,7 @@
         <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D324">
         <v>2.32581004879327</v>
@@ -9101,7 +9101,7 @@
         <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D325">
         <v>2.3346236060049201</v>
@@ -9147,7 +9147,7 @@
         <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327">
         <v>2.3731565937891999</v>
@@ -9156,7 +9156,7 @@
         <v>48.845683205787502</v>
       </c>
       <c r="F327" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G327">
         <v>75112</v>
@@ -9170,7 +9170,7 @@
         <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D328">
         <v>2.3794630701852499</v>
@@ -9179,7 +9179,7 @@
         <v>48.840176027173598</v>
       </c>
       <c r="F328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G328">
         <v>75112</v>
@@ -9193,7 +9193,7 @@
         <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D329">
         <v>2.38661785021405</v>
@@ -9202,7 +9202,7 @@
         <v>48.833319302894999</v>
       </c>
       <c r="F329" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G329">
         <v>75112</v>
@@ -9216,7 +9216,7 @@
         <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D330">
         <v>2.3764873711683001</v>
@@ -9225,7 +9225,7 @@
         <v>48.829925764980501</v>
       </c>
       <c r="F330" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G330">
         <v>75113</v>
@@ -9239,7 +9239,7 @@
         <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D331">
         <v>2.3669231215308</v>
@@ -9248,7 +9248,7 @@
         <v>48.827123440481003</v>
       </c>
       <c r="F331" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G331">
         <v>75113</v>
@@ -9262,7 +9262,7 @@
         <v>14</v>
       </c>
       <c r="C332" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D332">
         <v>2.35841294615593</v>
@@ -9271,7 +9271,7 @@
         <v>48.822149505126497</v>
       </c>
       <c r="F332" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G332">
         <v>75113</v>
@@ -9342,8 +9342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9356,25 +9356,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
         <v>274</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
         <v>275</v>
       </c>
-      <c r="C1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>276</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>277</v>
       </c>
-      <c r="F1" t="s">
-        <v>278</v>
-      </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9591,7 +9591,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9680,7 +9680,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -9762,7 +9762,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9779,7 +9779,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -9796,7 +9796,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -9813,7 +9813,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -9831,7 +9831,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -9848,7 +9848,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -9866,7 +9866,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -9883,7 +9883,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -9901,7 +9901,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -9918,7 +9918,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -9936,7 +9936,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -9953,7 +9953,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -9989,7 +9989,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -10006,7 +10006,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -10024,7 +10024,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -10041,7 +10041,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -10058,7 +10058,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -10093,7 +10093,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -10110,7 +10110,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -10127,7 +10127,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -10158,7 +10158,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -10175,7 +10175,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -10192,7 +10192,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -10209,7 +10209,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -10227,7 +10227,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -10244,7 +10244,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -10262,7 +10262,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -10280,7 +10280,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -10298,7 +10298,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -10315,7 +10315,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -10349,7 +10349,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -10367,7 +10367,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10385,7 +10385,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -10402,7 +10402,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -10420,7 +10420,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -10437,7 +10437,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -10454,7 +10454,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -10472,7 +10472,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -10490,7 +10490,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -10505,10 +10505,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
@@ -10521,10 +10521,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <v>65</v>
@@ -10538,10 +10538,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>66</v>
@@ -10555,10 +10555,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1">
         <v>67</v>
@@ -10571,7 +10571,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -10586,7 +10586,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -10603,7 +10603,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -10621,7 +10621,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -10638,7 +10638,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10656,7 +10656,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -10674,7 +10674,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -10692,7 +10692,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -10709,7 +10709,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -10727,7 +10727,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -10745,7 +10745,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -10762,7 +10762,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -10797,7 +10797,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -10814,7 +10814,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -10831,7 +10831,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -10849,7 +10849,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -10866,7 +10866,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -10883,7 +10883,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -10900,7 +10900,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -10918,7 +10918,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -10935,7 +10935,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -10953,7 +10953,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -10971,7 +10971,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -10988,7 +10988,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -11005,7 +11005,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -11020,7 +11020,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -11035,7 +11035,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -11052,7 +11052,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -11069,7 +11069,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -11087,7 +11087,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -11105,7 +11105,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -11123,7 +11123,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -11141,7 +11141,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -11158,7 +11158,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -11176,7 +11176,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -11194,7 +11194,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -11211,7 +11211,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -11228,7 +11228,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -11246,7 +11246,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -11263,7 +11263,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -11281,7 +11281,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -11298,7 +11298,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -11315,7 +11315,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -11347,7 +11347,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>6</v>
@@ -11364,7 +11364,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -11381,7 +11381,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -11399,7 +11399,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>6</v>
@@ -11416,7 +11416,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>6</v>
@@ -11433,7 +11433,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>6</v>
@@ -11450,7 +11450,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -11468,7 +11468,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>6</v>
@@ -11485,7 +11485,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -11502,7 +11502,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125">
         <v>6</v>
@@ -11520,7 +11520,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126">
         <v>6</v>
@@ -11538,7 +11538,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -11555,7 +11555,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -11573,7 +11573,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -11591,7 +11591,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130">
         <v>6</v>
@@ -11608,7 +11608,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>6</v>
@@ -11625,7 +11625,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132">
         <v>6</v>
@@ -11642,7 +11642,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133">
         <v>6</v>
@@ -11660,7 +11660,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -11677,7 +11677,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135">
         <v>6</v>
@@ -11694,7 +11694,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136">
         <v>6</v>
@@ -11711,7 +11711,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C137">
         <v>6</v>
@@ -11729,7 +11729,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C138">
         <v>6</v>
@@ -11746,7 +11746,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139">
         <v>6</v>
@@ -11764,7 +11764,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -11781,7 +11781,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141">
         <v>6</v>
@@ -11798,7 +11798,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142">
         <v>6</v>
@@ -11814,7 +11814,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>7</v>
@@ -11829,7 +11829,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>7</v>
@@ -11846,7 +11846,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>7</v>
@@ -11863,7 +11863,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>7</v>
@@ -11880,7 +11880,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C147">
         <v>7</v>
@@ -11898,7 +11898,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>7</v>
@@ -11916,7 +11916,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>7</v>
@@ -11933,7 +11933,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C150">
         <v>7</v>
@@ -11951,7 +11951,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>7</v>
@@ -11968,7 +11968,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152">
         <v>7</v>
@@ -11985,7 +11985,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -12002,7 +12002,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154">
         <v>7</v>
@@ -12020,7 +12020,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C155">
         <v>7</v>
@@ -12038,7 +12038,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -12074,7 +12074,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>7</v>
@@ -12109,7 +12109,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160">
         <v>7</v>
@@ -12126,7 +12126,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161">
         <v>7</v>
@@ -12143,7 +12143,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <v>7</v>
@@ -12161,7 +12161,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>7</v>
@@ -12178,7 +12178,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>7</v>
@@ -12195,7 +12195,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>7</v>
@@ -12212,7 +12212,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C166">
         <v>7</v>
@@ -12230,7 +12230,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168">
         <v>7</v>
@@ -12265,7 +12265,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -12282,7 +12282,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170">
         <v>7</v>
@@ -12299,7 +12299,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171">
         <v>7</v>
@@ -12314,10 +12314,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1">
@@ -12330,10 +12330,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D173">
         <v>170</v>
@@ -12348,10 +12348,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174">
         <v>171</v>
@@ -12365,10 +12365,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D175">
         <v>172</v>
@@ -12382,10 +12382,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D176">
         <v>173</v>
@@ -12400,10 +12400,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E177">
         <v>176</v>
@@ -12415,10 +12415,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E178">
         <v>177</v>
@@ -12429,10 +12429,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E179">
         <v>178</v>
@@ -12443,10 +12443,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1">
@@ -12459,7 +12459,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -12474,7 +12474,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -12491,7 +12491,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -12508,7 +12508,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -12525,7 +12525,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -12542,7 +12542,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C186">
         <v>8</v>
@@ -12560,7 +12560,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -12577,7 +12577,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C188">
         <v>8</v>
@@ -12594,7 +12594,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C189">
         <v>8</v>
@@ -12630,7 +12630,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191">
         <v>8</v>
@@ -12648,7 +12648,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C192">
         <v>8</v>
@@ -12666,7 +12666,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C193">
         <v>8</v>
@@ -12684,7 +12684,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194">
         <v>8</v>
@@ -12702,7 +12702,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C195">
         <v>8</v>
@@ -12720,7 +12720,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -12738,7 +12738,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -12756,7 +12756,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198">
         <v>8</v>
@@ -12773,7 +12773,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -12790,7 +12790,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -12807,7 +12807,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C201">
         <v>8</v>
@@ -12825,7 +12825,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C202">
         <v>8</v>
@@ -12842,7 +12842,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C203">
         <v>8</v>
@@ -12859,7 +12859,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C204">
         <v>8</v>
@@ -12877,7 +12877,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205">
         <v>8</v>
@@ -12894,7 +12894,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C206">
         <v>8</v>
@@ -12912,7 +12912,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207">
         <v>8</v>
@@ -12929,7 +12929,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208">
         <v>8</v>
@@ -12946,7 +12946,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -12961,7 +12961,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210">
         <v>9</v>
@@ -12976,7 +12976,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211">
         <v>9</v>
@@ -12993,7 +12993,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -13011,7 +13011,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -13029,7 +13029,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214">
         <v>9</v>
@@ -13046,7 +13046,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -13063,7 +13063,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216">
         <v>9</v>
@@ -13080,7 +13080,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217">
         <v>9</v>
@@ -13097,7 +13097,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C218">
         <v>9</v>
@@ -13115,7 +13115,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219">
         <v>9</v>
@@ -13132,7 +13132,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -13166,7 +13166,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222">
         <v>9</v>
@@ -13183,7 +13183,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C223">
         <v>9</v>
@@ -13201,7 +13201,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C224">
         <v>9</v>
@@ -13218,7 +13218,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -13236,7 +13236,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226">
         <v>9</v>
@@ -13254,7 +13254,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -13272,7 +13272,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C228">
         <v>9</v>
@@ -13290,7 +13290,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C229">
         <v>9</v>
@@ -13308,7 +13308,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -13326,7 +13326,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -13344,7 +13344,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C232">
         <v>9</v>
@@ -13362,7 +13362,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C233">
         <v>9</v>
@@ -13379,7 +13379,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C234">
         <v>9</v>
@@ -13396,7 +13396,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C235">
         <v>9</v>
@@ -13413,7 +13413,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C236">
         <v>9</v>
@@ -13430,7 +13430,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C237">
         <v>9</v>
@@ -13448,7 +13448,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C238">
         <v>9</v>
@@ -13465,7 +13465,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C239">
         <v>9</v>
@@ -13482,7 +13482,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C240">
         <v>9</v>
@@ -13497,7 +13497,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C241">
         <v>10</v>
@@ -13513,7 +13513,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C242">
         <v>10</v>
@@ -13531,7 +13531,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C243">
         <v>10</v>
@@ -13548,7 +13548,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C244">
         <v>10</v>
@@ -13565,7 +13565,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C245">
         <v>10</v>
@@ -13582,7 +13582,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C246">
         <v>10</v>
@@ -13600,7 +13600,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C247">
         <v>10</v>
@@ -13617,7 +13617,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C248">
         <v>10</v>
@@ -13635,7 +13635,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C249">
         <v>10</v>
@@ -13652,7 +13652,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C250">
         <v>10</v>
@@ -13670,7 +13670,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -13687,7 +13687,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C252">
         <v>10</v>
@@ -13705,7 +13705,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253">
         <v>10</v>
@@ -13722,7 +13722,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C254">
         <v>10</v>
@@ -13739,7 +13739,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C255">
         <v>10</v>
@@ -13757,7 +13757,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256">
         <v>10</v>
@@ -13771,7 +13771,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C257">
         <v>10</v>
@@ -13786,13 +13786,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C258">
         <v>10</v>
-      </c>
-      <c r="E258">
-        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -13800,7 +13797,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C259">
         <v>10</v>
@@ -13815,7 +13812,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C260">
         <v>10</v>
@@ -13829,7 +13826,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C261">
         <v>10</v>
@@ -13843,7 +13840,7 @@
         <v>330</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C262">
         <v>10</v>
@@ -13893,7 +13890,7 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C265">
         <v>11</v>
@@ -13910,7 +13907,7 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C266">
         <v>11</v>
@@ -13928,7 +13925,7 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C267">
         <v>11</v>
@@ -13946,7 +13943,7 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C268">
         <v>11</v>
@@ -13963,7 +13960,7 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C269">
         <v>11</v>
@@ -13981,7 +13978,7 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C270">
         <v>11</v>
@@ -13998,7 +13995,7 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C271">
         <v>11</v>
@@ -14015,7 +14012,7 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C272">
         <v>11</v>
@@ -14033,7 +14030,7 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C273">
         <v>11</v>
@@ -14050,7 +14047,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C274">
         <v>11</v>
@@ -14066,7 +14063,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C275">
         <v>12</v>
@@ -14081,7 +14078,7 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C276">
         <v>12</v>
@@ -14098,7 +14095,7 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C277">
         <v>12</v>
@@ -14116,7 +14113,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C278">
         <v>12</v>
@@ -14133,7 +14130,7 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C279">
         <v>12</v>
@@ -14150,7 +14147,7 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C280">
         <v>12</v>
@@ -14167,7 +14164,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C281">
         <v>12</v>
@@ -14185,7 +14182,7 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C282">
         <v>12</v>
@@ -14202,7 +14199,7 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C283">
         <v>12</v>
@@ -14219,7 +14216,7 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C284">
         <v>12</v>
@@ -14236,7 +14233,7 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -14254,7 +14251,7 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C286">
         <v>12</v>
@@ -14290,7 +14287,7 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C288">
         <v>12</v>
@@ -14307,7 +14304,7 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C289">
         <v>12</v>
@@ -14324,7 +14321,7 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C290">
         <v>12</v>
@@ -14341,7 +14338,7 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C291">
         <v>12</v>
@@ -14359,7 +14356,7 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C292">
         <v>12</v>
@@ -14376,7 +14373,7 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C293">
         <v>12</v>
@@ -14393,7 +14390,7 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C294">
         <v>12</v>
@@ -14411,7 +14408,7 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C295">
         <v>12</v>
@@ -14428,7 +14425,7 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C296">
         <v>12</v>
@@ -14446,7 +14443,7 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C297">
         <v>12</v>
@@ -14463,7 +14460,7 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C298">
         <v>12</v>
@@ -14480,7 +14477,7 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C299">
         <v>12</v>
@@ -14497,7 +14494,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C300">
         <v>12</v>
@@ -14512,7 +14509,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C301">
         <v>13</v>
@@ -14527,7 +14524,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C302">
         <v>13</v>
@@ -14544,7 +14541,7 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C303">
         <v>13</v>
@@ -14561,7 +14558,7 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C304">
         <v>13</v>
@@ -14578,7 +14575,7 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C305">
         <v>13</v>
@@ -14596,7 +14593,7 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C306">
         <v>13</v>
@@ -14614,7 +14611,7 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C307">
         <v>13</v>
@@ -14631,7 +14628,7 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C308">
         <v>13</v>
@@ -14648,7 +14645,7 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C309">
         <v>13</v>
@@ -14684,7 +14681,7 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C311">
         <v>13</v>
@@ -14702,7 +14699,7 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C312">
         <v>13</v>
@@ -14720,7 +14717,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C313">
         <v>13</v>
@@ -14737,7 +14734,7 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C314">
         <v>13</v>
@@ -14755,7 +14752,7 @@
         <v>311</v>
       </c>
       <c r="B315" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C315">
         <v>13</v>
@@ -14770,7 +14767,7 @@
         <v>312</v>
       </c>
       <c r="B316" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C316">
         <v>13</v>
@@ -14788,7 +14785,7 @@
         <v>313</v>
       </c>
       <c r="B317" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C317">
         <v>13</v>
@@ -14805,7 +14802,7 @@
         <v>314</v>
       </c>
       <c r="B318" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C318">
         <v>13</v>
@@ -14819,7 +14816,7 @@
         <v>315</v>
       </c>
       <c r="B319" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C319">
         <v>13</v>
@@ -14837,7 +14834,7 @@
         <v>316</v>
       </c>
       <c r="B320" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C320">
         <v>13</v>
@@ -14854,7 +14851,7 @@
         <v>317</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C321">
         <v>13</v>
@@ -14870,7 +14867,7 @@
         <v>318</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C322">
         <v>14</v>
@@ -14886,7 +14883,7 @@
         <v>319</v>
       </c>
       <c r="B323" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C323">
         <v>14</v>
@@ -14903,7 +14900,7 @@
         <v>320</v>
       </c>
       <c r="B324" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C324">
         <v>14</v>
@@ -14921,7 +14918,7 @@
         <v>321</v>
       </c>
       <c r="B325" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C325">
         <v>14</v>
@@ -14939,7 +14936,7 @@
         <v>322</v>
       </c>
       <c r="B326" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C326">
         <v>14</v>
@@ -14975,7 +14972,7 @@
         <v>324</v>
       </c>
       <c r="B328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C328">
         <v>14</v>
@@ -14993,7 +14990,7 @@
         <v>325</v>
       </c>
       <c r="B329" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C329">
         <v>14</v>
@@ -15011,7 +15008,7 @@
         <v>326</v>
       </c>
       <c r="B330" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C330">
         <v>14</v>
@@ -15028,7 +15025,7 @@
         <v>327</v>
       </c>
       <c r="B331" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C331">
         <v>14</v>
@@ -15045,7 +15042,7 @@
         <v>328</v>
       </c>
       <c r="B332" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C332">
         <v>14</v>
@@ -15062,7 +15059,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C333">
         <v>14</v>
@@ -15151,27 +15148,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
         <v>281</v>
       </c>
-      <c r="D1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>282</v>
-      </c>
-      <c r="F1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>57</v>
@@ -15191,7 +15188,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -15211,7 +15208,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -15231,7 +15228,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -15251,7 +15248,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>107</v>
@@ -15271,7 +15268,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>36</v>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>135</v>
@@ -15311,7 +15308,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>193</v>
@@ -15331,7 +15328,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>174</v>
@@ -15343,10 +15340,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15631,7 +15628,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>152</v>
@@ -15711,7 +15708,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29">
         <v>137</v>
@@ -15731,7 +15728,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>91</v>
@@ -15751,7 +15748,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31">
         <v>248</v>
@@ -15791,7 +15788,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>63</v>
@@ -15806,12 +15803,12 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>109</v>
@@ -15831,7 +15828,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>75</v>
@@ -15851,7 +15848,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>75</v>
@@ -15871,7 +15868,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37">
         <v>101</v>
@@ -15891,7 +15888,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -15911,7 +15908,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>74</v>
@@ -15931,7 +15928,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40">
         <v>192</v>
@@ -15951,7 +15948,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>51</v>
@@ -15991,7 +15988,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43">
         <v>187</v>
@@ -16011,7 +16008,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>34</v>
@@ -16031,7 +16028,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>34</v>
@@ -16046,12 +16043,12 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>98</v>
@@ -16066,12 +16063,12 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47">
         <v>253</v>
@@ -16091,7 +16088,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48">
         <v>160</v>
@@ -16111,7 +16108,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B49">
         <v>312</v>
@@ -16131,7 +16128,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50">
         <v>120</v>
@@ -16151,7 +16148,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>120</v>
@@ -16171,7 +16168,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>184</v>
@@ -16191,7 +16188,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53">
         <v>146</v>
@@ -16206,12 +16203,12 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54">
         <v>189</v>
@@ -16231,7 +16228,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55">
         <v>189</v>
@@ -16251,7 +16248,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56">
         <v>283</v>
@@ -16271,7 +16268,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57">
         <v>166</v>
@@ -16291,7 +16288,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>71</v>
@@ -16311,7 +16308,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B59">
         <v>211</v>
@@ -16331,7 +16328,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>210</v>
@@ -16351,7 +16348,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B61">
         <v>221</v>
@@ -16371,7 +16368,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>88</v>
@@ -16391,7 +16388,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>88</v>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>88</v>
@@ -16431,7 +16428,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>124</v>
@@ -16451,7 +16448,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>124</v>
@@ -16471,7 +16468,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>291</v>
@@ -16491,7 +16488,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68">
         <v>16</v>
@@ -16511,7 +16508,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
         <v>16</v>
@@ -16531,7 +16528,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <v>16</v>
@@ -16551,7 +16548,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71">
         <v>43</v>
@@ -16571,7 +16568,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72">
         <v>43</v>
@@ -16591,7 +16588,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73">
         <v>140</v>
@@ -16611,7 +16608,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74">
         <v>104</v>
@@ -16631,7 +16628,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>84</v>
@@ -16651,7 +16648,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <v>52</v>
@@ -16671,7 +16668,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77">
         <v>52</v>
@@ -16691,7 +16688,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78">
         <v>153</v>
@@ -16731,7 +16728,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>123</v>
@@ -16751,7 +16748,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <v>39</v>
@@ -16771,7 +16768,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82">
         <v>29</v>
@@ -16791,7 +16788,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83">
         <v>27</v>
@@ -16811,7 +16808,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84">
         <v>175</v>
@@ -16823,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F84">
         <v>11</v>
@@ -16831,7 +16828,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>112</v>
@@ -16851,7 +16848,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>112</v>
@@ -16871,7 +16868,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87">
         <v>131</v>
@@ -16891,7 +16888,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B88">
         <v>317</v>
@@ -16911,7 +16908,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>65</v>
@@ -16923,7 +16920,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F89">
         <v>11</v>
@@ -16931,7 +16928,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90">
         <v>154</v>
@@ -16951,7 +16948,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -16971,7 +16968,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92">
         <v>56</v>
@@ -16991,7 +16988,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93">
         <v>59</v>
@@ -17011,7 +17008,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94">
         <v>59</v>
@@ -17031,7 +17028,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95">
         <v>59</v>
@@ -17051,7 +17048,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96">
         <v>59</v>
@@ -17071,7 +17068,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97">
         <v>103</v>
@@ -17091,7 +17088,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98">
         <v>103</v>
@@ -17111,7 +17108,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99">
         <v>103</v>
@@ -17131,7 +17128,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>195</v>
@@ -17151,7 +17148,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101">
         <v>195</v>
@@ -17171,7 +17168,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B102">
         <v>229</v>
@@ -17191,7 +17188,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>15</v>
@@ -17211,7 +17208,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104">
         <v>191</v>
@@ -17231,7 +17228,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B105">
         <v>50</v>
@@ -17251,7 +17248,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106">
         <v>50</v>
@@ -17271,7 +17268,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B107">
         <v>50</v>
@@ -17291,7 +17288,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B108">
         <v>282</v>
@@ -17311,7 +17308,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109">
         <v>282</v>
@@ -17331,7 +17328,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B110">
         <v>309</v>
@@ -17351,7 +17348,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B111">
         <v>246</v>
@@ -17371,7 +17368,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>33</v>
@@ -17391,7 +17388,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B113">
         <v>33</v>
@@ -17411,7 +17408,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B114">
         <v>99</v>
@@ -17431,7 +17428,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115">
         <v>77</v>
@@ -17451,7 +17448,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116">
         <v>77</v>
@@ -17471,7 +17468,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117">
         <v>194</v>
@@ -17491,7 +17488,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <v>116</v>
@@ -17511,7 +17508,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119">
         <v>25</v>

--- a/src/LivinParis/data/metro/MetroParis.xlsx
+++ b/src/LivinParis/data/metro/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin\RiderProjects\LivinParis_\src\LivinParis\data\metro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\RiderProjects\LivinParis\src\LivinParis\data\metro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA179DF1-E396-4968-8B89-10A5EE21441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB04DE-D30F-4435-8062-2E362DE07EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9342,8 +9342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15136,8 +15136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDB5DC-C1CD-4F1F-BA58-6481AB17756E}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
